--- a/RP_TR_integration_Section2.xlsx
+++ b/RP_TR_integration_Section2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chamodi\Machine_Learning\Pressure_history_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189F485C-9B41-49B3-982A-3A887BDAB08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B8EE29-A200-441E-A8B4-55B47ECB18DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="4500" windowWidth="28800" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18010" yWindow="4810" windowWidth="18280" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="245">
   <si>
     <t>path</t>
   </si>
@@ -854,6 +854,20 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -881,20 +895,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -909,10 +909,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D58893E-5441-4720-9C33-A5B0B36CEF9B}" name="Table1" displayName="Table1" ref="A1:I162" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:I162" xr:uid="{1D58893E-5441-4720-9C33-A5B0B36CEF9B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I162">
-    <sortCondition ref="I1:I162"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D58893E-5441-4720-9C33-A5B0B36CEF9B}" name="Table1" displayName="Table1" ref="A1:I158" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:I158" xr:uid="{1D58893E-5441-4720-9C33-A5B0B36CEF9B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I158">
+    <sortCondition ref="I1:I158"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{551A70CF-43A9-4E75-866E-B4D0769A0AFE}" name="path"/>
@@ -1218,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A214" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -7183,10 +7183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77414C73-95F7-4173-BEB4-D9A53B60186E}">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163:XFD191"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11937,126 +11937,6 @@
         <v>149.10551595947229</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>26</v>
-      </c>
-      <c r="B159">
-        <v>3</v>
-      </c>
-      <c r="C159">
-        <v>6.5</v>
-      </c>
-      <c r="D159">
-        <v>30</v>
-      </c>
-      <c r="E159" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159">
-        <v>9.5964569999999991</v>
-      </c>
-      <c r="G159">
-        <v>372.45936434326569</v>
-      </c>
-      <c r="H159">
-        <v>546.91097989892819</v>
-      </c>
-      <c r="I159">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>174.4516155556625</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>141</v>
-      </c>
-      <c r="B160">
-        <v>5</v>
-      </c>
-      <c r="C160">
-        <v>24.5</v>
-      </c>
-      <c r="D160">
-        <v>15</v>
-      </c>
-      <c r="E160" t="s">
-        <v>91</v>
-      </c>
-      <c r="F160">
-        <v>10.148182353399999</v>
-      </c>
-      <c r="G160">
-        <v>472.29784578918787</v>
-      </c>
-      <c r="H160">
-        <v>665.73049141274032</v>
-      </c>
-      <c r="I160">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>193.43264562355245</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>161</v>
-      </c>
-      <c r="B161">
-        <v>5</v>
-      </c>
-      <c r="C161">
-        <v>34.5</v>
-      </c>
-      <c r="D161">
-        <v>15</v>
-      </c>
-      <c r="E161" t="s">
-        <v>91</v>
-      </c>
-      <c r="F161">
-        <v>9.4982388711999999</v>
-      </c>
-      <c r="G161">
-        <v>668.1190594584599</v>
-      </c>
-      <c r="H161">
-        <v>471.76668826234351</v>
-      </c>
-      <c r="I161">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>196.35237119611639</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>156</v>
-      </c>
-      <c r="B162">
-        <v>5</v>
-      </c>
-      <c r="C162">
-        <v>32.5</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162" t="s">
-        <v>89</v>
-      </c>
-      <c r="F162">
-        <v>10.519944904700001</v>
-      </c>
-      <c r="G162">
-        <v>627.50485471696231</v>
-      </c>
-      <c r="H162">
-        <v>430.89071549223132</v>
-      </c>
-      <c r="I162">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>196.61413922473099</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
